--- a/Calendario tareas Correctivo.xlsx
+++ b/Calendario tareas Correctivo.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="209">
   <si>
     <t>NOTAS</t>
   </si>
@@ -5808,7 +5808,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,7 +5996,9 @@
     <row r="8" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="25" t="s">
+        <v>208</v>
+      </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>

--- a/Calendario tareas Correctivo.xlsx
+++ b/Calendario tareas Correctivo.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="209">
   <si>
     <t>NOTAS</t>
   </si>
@@ -5808,7 +5808,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,9 +5996,7 @@
     <row r="8" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="25" t="s">
-        <v>208</v>
-      </c>
+      <c r="C8" s="25"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>

--- a/Calendario tareas Correctivo.xlsx
+++ b/Calendario tareas Correctivo.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="210">
   <si>
     <t>NOTAS</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>INC000066123826(MODELO SUSCRIPCIÓNBuenos días, Desde el BO OPV, se han detectando incidencia en los contratos fi) --&gt; 3 horas. [Interno] (Usuarios que no se les pude dar de baja en pro) --&gt; 2 horas. [Preparación pace] --&gt; 2 horas.</t>
+  </si>
+  <si>
+    <t>INC000071036618(Aviso Disponibilidad - Signo importes aviso vs factura) --&gt; 4 horas. INC000070896672(EMMNZ353-VARIOS-ERROR VAYA) --&gt; 3 horas.</t>
   </si>
 </sst>
 </file>
@@ -5808,7 +5811,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,7 +5999,9 @@
     <row r="8" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>209</v>
+      </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>

--- a/Calendario tareas Correctivo.xlsx
+++ b/Calendario tareas Correctivo.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="215">
   <si>
     <t>NOTAS</t>
   </si>
@@ -835,6 +835,21 @@
   </si>
   <si>
     <t>INC000071036618(Aviso Disponibilidad - Signo importes aviso vs factura) --&gt; 4 horas. INC000070896672(EMMNZ353-VARIOS-ERROR VAYA) --&gt; 3 horas.</t>
+  </si>
+  <si>
+    <t>INC000070528878(PMA7503-30454890S-Error genérico) --&gt; 5. INC000063373617 (PIB02303- 76225970Z - Error vaya) --&gt; 2 horas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC000070528878(PMA7503-30454890S-Error genérico) --&gt; 6.[INTERNO ]Reunion --&gt; 1 hora. </t>
+  </si>
+  <si>
+    <t>INC000071823491(EXXI - Incidencia - RIESGO REGULATORIO: bloque referencia a clientes GALPb) --&gt; 4 horas. INC000071822144 (EXXI - Soporte: modificar frase / enlaces Mis facturas) --&gt; 4. [INTERNO](CORRECIÓN USUARIO uid ) --&gt; 1 hora.</t>
+  </si>
+  <si>
+    <t>INC000068104000(MODELO SUSCRIPCIONBuenos días,Estamos detectando que lo firmado por el cliente no coincide con la )  --&gt; 5 horas. [INTERNO] (pase a PRO ) --&gt; 2 horas.</t>
+  </si>
+  <si>
+    <t>INC000070896672 (EMMNZ353-VARIOS-ERROR VAYA) --&gt; 3 horas. INC000070346033 (cliente 28913467y modificacion de contrato a unica de endesa. se hace procedimiento de cosmos y siem) --&gt; 2 hora. INC000071806176(EXTMAD029-ABAIVARIOS-Error vaya) --&gt; 2 horas.INC000072009947(PAL004 - 27197384E - Error solicitud)--&gt; 2 horas.</t>
   </si>
 </sst>
 </file>
@@ -5432,8 +5447,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:H14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5810,8 +5825,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,10 +6017,18 @@
       <c r="C8" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,7 +6065,9 @@
     <row r="10" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>214</v>
+      </c>
       <c r="D10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
